--- a/testcase hm4.xlsx
+++ b/testcase hm4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Workbook________"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegsmirnov/Desktop/7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegsmirnov/Documents/GitHub/Myfirst_Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8076A747-1658-8348-ACF7-8A31DC53D857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3487479-B8EA-FE4F-AAC5-12A8A970077D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" tabRatio="682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25400" windowHeight="28800" tabRatio="682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId1"/>
@@ -799,6 +799,24 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -813,24 +831,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1228,11 +1228,11 @@
   <sheetPr codeName="Worksheet____5"/>
   <dimension ref="A1:DT61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane xSplit="11" ySplit="7" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1248,7 +1248,7 @@
     <col min="9" max="9" width="5.5" customWidth="1"/>
     <col min="10" max="10" width="1.1640625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="2.1640625" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" customWidth="1"/>
+    <col min="12" max="12" width="45.6640625" customWidth="1"/>
     <col min="13" max="13" width="2.1640625" customWidth="1"/>
     <col min="14" max="14" width="13.33203125" customWidth="1"/>
     <col min="15" max="15" width="2.1640625" customWidth="1"/>
@@ -1364,7 +1364,9 @@
         <v>7</v>
       </c>
       <c r="K3" s="11"/>
-      <c r="L3" s="22"/>
+      <c r="L3" s="22">
+        <v>43751</v>
+      </c>
       <c r="M3" s="11"/>
       <c r="N3" s="22"/>
       <c r="O3" s="11"/>
@@ -1448,43 +1450,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="47" t="s">
+      <c r="F6" s="48"/>
+      <c r="G6" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="50"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="49" t="s">
+      <c r="L6" s="43" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="49" t="s">
+      <c r="N6" s="43" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="49"/>
+      <c r="P6" s="43"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="49"/>
+      <c r="R6" s="43"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="49"/>
+      <c r="T6" s="43"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1494,29 +1496,29 @@
     </row>
     <row r="7" spans="1:124" ht="127" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="43"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="51"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="45"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="49"/>
+      <c r="L7" s="43"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="49"/>
+      <c r="N7" s="43"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="49"/>
+      <c r="P7" s="43"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="49"/>
+      <c r="R7" s="43"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="49"/>
+      <c r="T7" s="43"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1915,7 +1917,7 @@
       <c r="B16" s="3">
         <v>9</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="42" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -3270,6 +3272,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3277,14 +3285,8 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L42 R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N42" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Result</formula1>
     </dataValidation>
